--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicholas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicholas/software/uni/perf3402/project1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA48A38-CCC6-A343-AF98-D0B1438954E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FB5D12-F1CA-1040-B477-E5704A48E2CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="480" windowWidth="31460" windowHeight="19820" activeTab="3" xr2:uid="{04363091-1A2D-6E41-A6DA-77997485F470}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31460" windowHeight="19260" activeTab="5" xr2:uid="{04363091-1A2D-6E41-A6DA-77997485F470}"/>
   </bookViews>
   <sheets>
     <sheet name="COO V CSR" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="TR" sheetId="3" r:id="rId3"/>
     <sheet name="AD" sheetId="4" r:id="rId4"/>
     <sheet name="TS" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
   <si>
     <t>COO</t>
   </si>
@@ -80,6 +81,9 @@
   </si>
   <si>
     <t>scalar</t>
+  </si>
+  <si>
+    <t>Matrix Multiply</t>
   </si>
 </sst>
 </file>
@@ -1199,6 +1203,713 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0C04-664C-BC76-DCF2B8B1041A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1077330384"/>
+        <c:axId val="1080149168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1077330384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080149168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1080149168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1077330384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Transposition Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31852572579190958"/>
+          <c:y val="3.5807291666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TS!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Integer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TS!$D$36:$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>256x256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TS!$D$37:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.8744999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.63175E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCE8-F04B-B9D3-6AB09AA9A908}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TS!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TS!$D$36:$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>256x256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TS!$D$38:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.5770000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.80985E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCE8-F04B-B9D3-6AB09AA9A908}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7272,6 +7983,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8089,6 +8840,502 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12943,6 +14190,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>770074</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>820874</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14231</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D86520-9DAD-AF43-819E-48F76504E7E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15655,7 +16945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E746D0-C65F-244F-8645-4703383435D1}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -16061,8 +17351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FC301C-2335-C849-952A-96E1916B08A4}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScale="162" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="R41" sqref="A1:R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16466,4 +17756,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83307540-652E-7E44-8ECF-8173CF6D998E}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <v>1024</v>
+      </c>
+      <c r="G5">
+        <v>256</v>
+      </c>
+      <c r="H5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C7:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D7:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G6:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H6:H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <f>C26/20</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <f>D26/20</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
+        <f>G26/20</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f>H26/20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <f>C27</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <f>G27</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>H27</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicholas/software/uni/perf3402/project1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FB5D12-F1CA-1040-B477-E5704A48E2CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA02393-5546-2D45-B013-F9D4B101E207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31460" windowHeight="19260" activeTab="5" xr2:uid="{04363091-1A2D-6E41-A6DA-77997485F470}"/>
+    <workbookView xWindow="520" yWindow="660" windowWidth="31460" windowHeight="19260" xr2:uid="{04363091-1A2D-6E41-A6DA-77997485F470}"/>
   </bookViews>
   <sheets>
     <sheet name="COO V CSR" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TR" sheetId="3" r:id="rId3"/>
     <sheet name="AD" sheetId="4" r:id="rId4"/>
     <sheet name="TS" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="MM" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1569,7 +1569,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Transposition Time</a:t>
+              <a:t> Multiplication Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1630,7 +1630,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TS!$C$37</c:f>
+              <c:f>MM!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1736,7 +1736,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TS!$D$36:$E$36</c:f>
+              <c:f>MM!$D$36:$E$36</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1750,15 +1750,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TS!$D$37:$E$37</c:f>
+              <c:f>MM!$D$37:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.8744999999999998E-4</c:v>
+                  <c:v>3.2039449999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.63175E-3</c:v>
+                  <c:v>1.8162125499999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,7 +1774,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>TS!$C$38</c:f>
+              <c:f>MM!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1880,7 +1880,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TS!$D$36:$E$36</c:f>
+              <c:f>MM!$D$36:$E$36</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1894,15 +1894,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TS!$D$38:$E$38</c:f>
+              <c:f>MM!$D$38:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9.5770000000000002E-4</c:v>
+                  <c:v>3.5405550000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.80985E-3</c:v>
+                  <c:v>1.9486942000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13984,15 +13984,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14532,7 +14532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE18A9D-9583-0F4A-B4B9-A92E4AD5317F}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -17762,8 +17762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83307540-652E-7E44-8ECF-8173CF6D998E}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17795,28 +17795,308 @@
         <v>1024</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>4.3761000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.74821</v>
+      </c>
+      <c r="G6">
+        <v>4.8314000000000003E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.055472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>3.4512000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.749752</v>
+      </c>
+      <c r="G7">
+        <v>4.1138000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.0621580000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>3.4055000000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.7566569999999999</v>
+      </c>
+      <c r="G8">
+        <v>3.5458000000000003E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.2059099999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>3.381E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.738883</v>
+      </c>
+      <c r="G9">
+        <v>3.4567000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.2169979999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>3.3424000000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.783371</v>
+      </c>
+      <c r="G10">
+        <v>3.3930000000000002E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.2052139999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>3.3227E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.876085</v>
+      </c>
+      <c r="G11">
+        <v>3.3763000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.080085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>3.3353000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.8449629999999999</v>
+      </c>
+      <c r="G12">
+        <v>3.3855999999999997E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.0125069999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>3.3966000000000003E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.875219</v>
+      </c>
+      <c r="G13">
+        <v>3.4086999999999999E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.8819589999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>3.3251000000000003E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.095758</v>
+      </c>
+      <c r="G14">
+        <v>3.3833000000000002E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.894963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>3.3486000000000002E-2</v>
+      </c>
+      <c r="D15">
+        <v>2.1519699999999999</v>
+      </c>
+      <c r="G15">
+        <v>3.3919999999999999E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.8525510000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>3.3442E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.94878</v>
+      </c>
+      <c r="G16">
+        <v>3.5478000000000003E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.8581570000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>3.4446999999999998E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.91771</v>
+      </c>
+      <c r="G17">
+        <v>3.4633999999999998E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.863022</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>3.4181999999999997E-2</v>
+      </c>
+      <c r="D18">
+        <v>2.0754450000000002</v>
+      </c>
+      <c r="G18">
+        <v>3.5295E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.888304</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>3.3861000000000002E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.8451880000000001</v>
+      </c>
+      <c r="G19">
+        <v>3.4668999999999998E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.840192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>3.3978000000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.983117</v>
+      </c>
+      <c r="G20">
+        <v>3.4817000000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.84751</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>3.3314000000000003E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.0694379999999999</v>
+      </c>
+      <c r="G21">
+        <v>3.4548000000000002E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.835906</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>3.3311E-2</v>
+      </c>
+      <c r="D22">
+        <v>2.012893</v>
+      </c>
+      <c r="G22">
+        <v>3.3857999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.843899</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>3.3257000000000002E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.8090820000000001</v>
+      </c>
+      <c r="G23">
+        <v>3.3778000000000002E-2</v>
+      </c>
+      <c r="H23">
+        <v>1.8426990000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>3.3856999999999998E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.838835</v>
+      </c>
+      <c r="G24">
+        <v>3.4125000000000003E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.84002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>3.4056000000000003E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.9511050000000001</v>
+      </c>
+      <c r="G25">
+        <v>3.4042999999999997E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.8463579999999999</v>
+      </c>
+    </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
         <f>SUM(C7:C25)</f>
-        <v>0</v>
+        <v>0.64078899999999994</v>
       </c>
       <c r="D26">
         <f>SUM(D7:D25)</f>
-        <v>0</v>
+        <v>36.32425099999999</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
       </c>
       <c r="G26">
         <f>SUM(G6:G25)</f>
-        <v>0</v>
+        <v>0.70811100000000005</v>
       </c>
       <c r="H26">
         <f>SUM(H6:H25)</f>
-        <v>0</v>
+        <v>38.973884000000005</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -17825,11 +18105,11 @@
       </c>
       <c r="C27" s="1">
         <f>C26/20</f>
-        <v>0</v>
+        <v>3.2039449999999997E-2</v>
       </c>
       <c r="D27" s="1">
         <f>D26/20</f>
-        <v>0</v>
+        <v>1.8162125499999995</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" t="s">
@@ -17837,11 +18117,11 @@
       </c>
       <c r="G27" s="1">
         <f>G26/20</f>
-        <v>0</v>
+        <v>3.5405550000000001E-2</v>
       </c>
       <c r="H27" s="1">
         <f>H26/20</f>
-        <v>0</v>
+        <v>1.9486942000000003</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
@@ -17858,11 +18138,11 @@
       </c>
       <c r="D37">
         <f>C27</f>
-        <v>0</v>
+        <v>3.2039449999999997E-2</v>
       </c>
       <c r="E37">
         <f>D27</f>
-        <v>0</v>
+        <v>1.8162125499999995</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -17871,11 +18151,11 @@
       </c>
       <c r="D38">
         <f>G27</f>
-        <v>0</v>
+        <v>3.5405550000000001E-2</v>
       </c>
       <c r="E38">
         <f>H27</f>
-        <v>0</v>
+        <v>1.9486942000000003</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicholas/software/uni/perf3402/project1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA02393-5546-2D45-B013-F9D4B101E207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404203BC-8761-7F44-82FF-510B1972594F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="660" windowWidth="31460" windowHeight="19260" xr2:uid="{04363091-1A2D-6E41-A6DA-77997485F470}"/>
+    <workbookView xWindow="160" yWindow="480" windowWidth="31220" windowHeight="19260" activeTab="6" xr2:uid="{04363091-1A2D-6E41-A6DA-77997485F470}"/>
   </bookViews>
   <sheets>
     <sheet name="COO V CSR" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AD" sheetId="4" r:id="rId4"/>
     <sheet name="TS" sheetId="5" r:id="rId5"/>
     <sheet name="MM" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <t>COO</t>
   </si>
@@ -84,6 +85,18 @@
   </si>
   <si>
     <t>Matrix Multiply</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>R=</t>
+  </si>
+  <si>
+    <t>Gradient=</t>
   </si>
 </sst>
 </file>
@@ -2176,6 +2189,414 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Floating</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Point Matrix Multiplication By Matrix Size (64-1024)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.9779999999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5047999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7686150000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9486942000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EF57-BC43-A764-4C80F4825861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1545040304"/>
+        <c:axId val="1545274048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1545040304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1050"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545274048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1545274048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545040304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8023,6 +8444,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9826,6 +10287,508 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -14194,16 +15157,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>770074</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>178137</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8074</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>820874</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>14231</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>58874</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52331</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14217,6 +15180,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>517236</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>430695</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>35607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419A3E1F-E0FC-0147-A4D7-3CAC3601F35D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -14532,7 +15536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE18A9D-9583-0F4A-B4B9-A92E4AD5317F}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="AC1" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -17762,8 +18766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83307540-652E-7E44-8ECF-8173CF6D998E}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A7" zoomScale="112" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18162,4 +19166,388 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07833FC3-CFDA-8741-9F03-F70927013506}">
+  <dimension ref="B3:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>128</v>
+      </c>
+      <c r="E3">
+        <v>256</v>
+      </c>
+      <c r="F3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>8.6799999999999996E-4</v>
+      </c>
+      <c r="D4">
+        <v>6.7250000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>4.4094000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.055472</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>8.3199999999999995E-4</v>
+      </c>
+      <c r="D5">
+        <v>6.5880000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>3.5906E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.0621580000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>8.2899999999999998E-4</v>
+      </c>
+      <c r="D6">
+        <v>6.1250000000000002E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.4664E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.2059099999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>8.3199999999999995E-4</v>
+      </c>
+      <c r="D7">
+        <v>6.025E-3</v>
+      </c>
+      <c r="E7">
+        <v>3.5458000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.2169979999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>8.34E-4</v>
+      </c>
+      <c r="D8">
+        <v>6.0879999999999997E-3</v>
+      </c>
+      <c r="E8">
+        <v>3.4597999999999997E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.2052139999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>8.12E-4</v>
+      </c>
+      <c r="D9">
+        <v>6.0029999999999997E-3</v>
+      </c>
+      <c r="E9">
+        <v>3.4721000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.080085</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>8.4099999999999995E-4</v>
+      </c>
+      <c r="D10">
+        <v>5.9049999999999997E-3</v>
+      </c>
+      <c r="E10">
+        <v>3.4810000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.0125069999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>7.7499999999999997E-4</v>
+      </c>
+      <c r="D11">
+        <v>5.9620000000000003E-3</v>
+      </c>
+      <c r="E11">
+        <v>3.5164000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.8819589999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="D12">
+        <v>5.6820000000000004E-3</v>
+      </c>
+      <c r="E12">
+        <v>3.8996000000000003E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.894963</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>7.7499999999999997E-4</v>
+      </c>
+      <c r="D13">
+        <v>4.9189999999999998E-3</v>
+      </c>
+      <c r="E13">
+        <v>4.2958000000000003E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.8525510000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="D14">
+        <v>5.5250000000000004E-3</v>
+      </c>
+      <c r="E14">
+        <v>4.3305999999999997E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.8581570000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>7.54E-4</v>
+      </c>
+      <c r="D15">
+        <v>4.9370000000000004E-3</v>
+      </c>
+      <c r="E15">
+        <v>4.2983E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.863022</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>7.5900000000000002E-4</v>
+      </c>
+      <c r="D16">
+        <v>4.8409999999999998E-3</v>
+      </c>
+      <c r="E16">
+        <v>3.8159999999999999E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.888304</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>8.6399999999999997E-4</v>
+      </c>
+      <c r="D17">
+        <v>4.9220000000000002E-3</v>
+      </c>
+      <c r="E17">
+        <v>3.6616000000000003E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.840192</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>7.94E-4</v>
+      </c>
+      <c r="D18">
+        <v>4.862E-3</v>
+      </c>
+      <c r="E18">
+        <v>3.4910999999999998E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.84751</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>7.5699999999999997E-4</v>
+      </c>
+      <c r="D19">
+        <v>4.9880000000000002E-3</v>
+      </c>
+      <c r="E19">
+        <v>3.4166000000000002E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.835906</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>7.5500000000000003E-4</v>
+      </c>
+      <c r="D20">
+        <v>5.0309999999999999E-3</v>
+      </c>
+      <c r="E20">
+        <v>3.492E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.843899</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>7.5100000000000004E-4</v>
+      </c>
+      <c r="D21">
+        <v>5.0159999999999996E-3</v>
+      </c>
+      <c r="E21">
+        <v>3.5494999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.8426990000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>7.6300000000000001E-4</v>
+      </c>
+      <c r="D22">
+        <v>5.11E-3</v>
+      </c>
+      <c r="E22">
+        <v>3.8455999999999997E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.84002</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>7.6599999999999997E-4</v>
+      </c>
+      <c r="D23">
+        <v>4.8419999999999999E-3</v>
+      </c>
+      <c r="E23">
+        <v>4.3340999999999998E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.8463579999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>SUM(C4:C23)/20</f>
+        <v>7.9779999999999988E-4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:F24" si="0">SUM(D4:D23)/20</f>
+        <v>5.5047999999999989E-3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3.7686150000000002E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.9486942000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <v>128</v>
+      </c>
+      <c r="E34">
+        <v>256</v>
+      </c>
+      <c r="F34">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <f>C24</f>
+        <v>7.9779999999999988E-4</v>
+      </c>
+      <c r="D35">
+        <f>D24</f>
+        <v>5.5047999999999989E-3</v>
+      </c>
+      <c r="E35">
+        <f>E24</f>
+        <v>3.7686150000000002E-2</v>
+      </c>
+      <c r="F35">
+        <f>F24</f>
+        <v>1.9486942000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <f>PEARSON(C34:F34, C35:F35)</f>
+        <v>0.98657953051016245</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <f>SLOPE(C35:F35, C34:F34)</f>
+        <v>2.1463441534434373E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicholas/software/uni/perf3402/project1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404203BC-8761-7F44-82FF-510B1972594F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFADCDF-B911-194F-994D-71F6E168F0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="480" windowWidth="31220" windowHeight="19260" activeTab="6" xr2:uid="{04363091-1A2D-6E41-A6DA-77997485F470}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="AD" sheetId="4" r:id="rId4"/>
     <sheet name="TS" sheetId="5" r:id="rId5"/>
     <sheet name="MM" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="MM linear" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2340,7 +2340,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$35</c:f>
+              <c:f>'MM linear'!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2409,7 +2409,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$34:$F$34</c:f>
+              <c:f>'MM linear'!$C$34:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2430,7 +2430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$F$35</c:f>
+              <c:f>'MM linear'!$C$35:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19172,8 +19172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07833FC3-CFDA-8741-9F03-F70927013506}">
   <dimension ref="B3:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:F35"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
